--- a/tugas7/.tabel.xlsx
+++ b/tugas7/.tabel.xlsx
@@ -32,9 +32,6 @@
     <t>Concurrency Level</t>
   </si>
   <si>
-    <t>Time taken for test</t>
-  </si>
-  <si>
     <t>Complete request</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Request per second (#/sec)</t>
+  </si>
+  <si>
+    <t>Time taken for test (second)</t>
   </si>
 </sst>
 </file>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,25 +416,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>2.3E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -457,71 +457,287 @@
         <v>1360</v>
       </c>
       <c r="G2" s="2">
-        <v>240</v>
+        <v>203.96</v>
       </c>
       <c r="H2" s="2">
-        <v>2.2650000000000001</v>
+        <v>4.9029999999999996</v>
       </c>
       <c r="I2" s="2">
-        <v>58.63</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1360</v>
+      </c>
+      <c r="G3" s="2">
+        <v>913.78</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>122.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1360</v>
+      </c>
+      <c r="G4" s="2">
+        <v>859.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11.635999999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>114.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C5" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="2">
         <v>50</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>6800</v>
       </c>
-      <c r="G3" s="2">
-        <v>47.77</v>
-      </c>
-      <c r="H3" s="2">
-        <v>20.931999999999999</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="G5" s="2">
+        <v>156.31</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6800</v>
+      </c>
+      <c r="G6" s="2">
+        <v>252.81</v>
+      </c>
+      <c r="H6" s="2">
+        <v>39.555</v>
+      </c>
+      <c r="I6" s="2">
+        <v>33.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6800</v>
+      </c>
+      <c r="G7" s="2">
+        <v>382.45</v>
+      </c>
+      <c r="H7" s="2">
+        <v>78.441000000000003</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6800</v>
+      </c>
+      <c r="G8" s="2">
+        <v>248.79</v>
+      </c>
+      <c r="H8" s="2">
+        <v>200.971</v>
+      </c>
+      <c r="I8" s="2">
+        <v>33.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>7.1909999999999998</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C9" s="2">
+        <v>1.087</v>
+      </c>
+      <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>13600</v>
       </c>
-      <c r="G4" s="2">
-        <v>13.91</v>
-      </c>
-      <c r="H4" s="2">
-        <v>71.914000000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1.85</v>
+      <c r="G9" s="2">
+        <v>92</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10.87</v>
+      </c>
+      <c r="I9" s="2">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13600</v>
+      </c>
+      <c r="G10" s="2">
+        <v>126.11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>79.296999999999997</v>
+      </c>
+      <c r="I10" s="2">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13600</v>
+      </c>
+      <c r="G11" s="2">
+        <v>119.55</v>
+      </c>
+      <c r="H11" s="2">
+        <v>418.23700000000002</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>13600</v>
+      </c>
+      <c r="G12" s="2">
+        <v>162.41999999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>615.66999999999996</v>
+      </c>
+      <c r="I12" s="2">
+        <v>21.57</v>
       </c>
     </row>
   </sheetData>
